--- a/Evaluation/evaluation_result_zax.xlsx
+++ b/Evaluation/evaluation_result_zax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/COURSES/15-618/project/Parallel-Decision-Tree-on-GPU/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC44BB-1D24-814E-9FE2-6C2714360EB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FEF1F-4757-124E-8DDA-9D761DFA04A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,6 +1875,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SPEED UP FOR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> NODE PARALLEL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,7 +2199,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2182,14 +2209,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Speedup</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> of MPI at Different Data Size</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2197,8 +2224,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33445936662015874"/>
-          <c:y val="3.4597042524941196E-2"/>
+          <c:x val="0.28155639733241244"/>
+          <c:y val="3.1256469130067556E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2214,7 +2241,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2240,27 +2267,175 @@
           <c:h val="0.84093828969053286"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1,000,000 data</c:v>
+            <c:v>1,000 samples</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89687856269087696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7373249505722671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2516200209034949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84688401184947715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F412-1748-9D18-49A2AE9388E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10,000 samples</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91658366533864533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0993006431943091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421048537573093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6480118821803091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F412-1748-9D18-49A2AE9388E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100,000 samples</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI!$I$5:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95162384481461637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2868583619958189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.457766590788923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.493455467246497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F412-1748-9D18-49A2AE9388E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1,000,000 samples</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPI!$I$5:$I$8</c:f>
@@ -2302,168 +2477,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F412-1748-9D18-49A2AE9388E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>100,000 samples</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>MPI!$I$5:$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.95162384481461637</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2868583619958189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.457766590788923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.493455467246497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F412-1748-9D18-49A2AE9388E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>10,000 samples</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.91658366533864533</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0993006431943091</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.421048537573093</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6480118821803091</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F412-1748-9D18-49A2AE9388E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>1,000 samples</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI!$C$17:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89687856269087696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7373249505722671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2516200209034949</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84688401184947715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F412-1748-9D18-49A2AE9388E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2475,10 +2491,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1516530415"/>
         <c:axId val="1559852463"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1516530415"/>
         <c:scaling>
@@ -2583,6 +2599,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2629,10 +2659,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13870107841588439"/>
-          <c:y val="7.5085324232081918E-2"/>
-          <c:w val="0.23051742344244977"/>
-          <c:h val="0.38667463921958561"/>
+          <c:x val="0.12675529063025318"/>
+          <c:y val="0.10849147054653577"/>
+          <c:w val="0.15148933139655976"/>
+          <c:h val="0.26155473761931802"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2661,8 +2691,8 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2727,7 +2757,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2737,14 +2767,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Speedup</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> of MPI at Different Feature Size</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2752,8 +2782,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33445936662015874"/>
-          <c:y val="3.4597042524941196E-2"/>
+          <c:x val="0.27081999894363196"/>
+          <c:y val="2.7972658993471448E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2769,7 +2799,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2795,8 +2825,9 @@
           <c:h val="0.84093828969053286"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2805,17 +2836,15 @@
             <c:v>50 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPI!$I$5:$I$8</c:f>
@@ -2857,7 +2886,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A48-D947-AC07-CDB2E75979A0}"/>
@@ -2871,17 +2899,15 @@
             <c:v>200 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPI!$I$5:$I$8</c:f>
@@ -2923,7 +2949,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A48-D947-AC07-CDB2E75979A0}"/>
@@ -2937,17 +2962,15 @@
             <c:v>400 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>MPI!$C$33:$C$36</c:f>
@@ -2969,7 +2992,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7A48-D947-AC07-CDB2E75979A0}"/>
@@ -2983,17 +3005,15 @@
             <c:v>1,000 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>MPI!$C$29:$C$32</c:f>
@@ -3015,7 +3035,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7A48-D947-AC07-CDB2E75979A0}"/>
@@ -3030,10 +3049,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1516530415"/>
         <c:axId val="1559852463"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1516530415"/>
         <c:scaling>
@@ -3138,6 +3157,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3184,10 +3217,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13870107841588439"/>
-          <c:y val="7.5085324232081918E-2"/>
-          <c:w val="0.67005113925471649"/>
-          <c:h val="6.1989758554753631E-2"/>
+          <c:x val="0.12150128863361499"/>
+          <c:y val="0.12145513741831483"/>
+          <c:w val="0.14097218366177805"/>
+          <c:h val="0.33219260340701134"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3332,8 +3365,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3342,29 +3376,15 @@
             <c:v>1,000,000 samples</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -3412,7 +3432,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8373-0448-851E-A2529A945D36}"/>
@@ -3426,29 +3445,15 @@
             <c:v>100,000 samples</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -3496,7 +3501,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8373-0448-851E-A2529A945D36}"/>
@@ -3510,29 +3514,15 @@
             <c:v>10,000 samples</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -3580,7 +3570,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8373-0448-851E-A2529A945D36}"/>
@@ -3594,29 +3583,15 @@
             <c:v>1,000 samples</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -3664,7 +3639,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8373-0448-851E-A2529A945D36}"/>
@@ -3679,11 +3653,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1558671567"/>
         <c:axId val="1524736335"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1558671567"/>
         <c:scaling>
@@ -3937,8 +3910,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3947,29 +3921,15 @@
             <c:v>50 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -4017,7 +3977,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DCC8-474F-87C6-0D4F910E96AC}"/>
@@ -4031,29 +3990,15 @@
             <c:v>200 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -4101,7 +4046,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DCC8-474F-87C6-0D4F910E96AC}"/>
@@ -4115,29 +4059,15 @@
             <c:v>1000 features</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>OpenMP!$G$7:$G$11</c:f>
@@ -4185,7 +4115,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DCC8-474F-87C6-0D4F910E96AC}"/>
@@ -4200,11 +4129,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1558671567"/>
         <c:axId val="1524736335"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1558671567"/>
         <c:scaling>
@@ -7173,16 +7101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>808357</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>154406</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>193261</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>13804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>40149</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>62277</xdr:rowOff>
+      <xdr:colOff>263669</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>143557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7210,15 +7138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>725215</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>61310</xdr:rowOff>
+      <xdr:colOff>684244</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>189194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>575734</xdr:colOff>
+      <xdr:colOff>558469</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>158364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7253,15 +7181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7288,15 +7216,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12312,8 +12240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C58E8AA-D39D-FC44-896C-36DA8366F316}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12570,8 +12498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDB7B51-6563-2742-BB42-FF893C499485}">
   <dimension ref="A4:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14420,8 +14348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2BDD5A-5F9E-2244-83D5-AF3AEEF24736}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
